--- a/缓存/test.xlsx
+++ b/缓存/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8010"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,12 +86,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,7 +109,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,116 +214,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,15 +246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,23 +458,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,8 +478,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +500,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -521,26 +525,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,153 +543,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,7 +1060,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/缓存/test.xlsx
+++ b/缓存/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>项目中缓存是如何使用的？为什么要用缓存？</t>
   </si>
@@ -27,9 +27,18 @@
     <t>redis 和 memcached 有什么区别</t>
   </si>
   <si>
+    <t>高性能</t>
+  </si>
+  <si>
+    <t>mysql并发2000QPS，Redis有10W的QPS</t>
+  </si>
+  <si>
     <t>redis 的线程模型</t>
   </si>
   <si>
+    <t>高并发</t>
+  </si>
+  <si>
     <t>redis 都有哪些数据类型？</t>
   </si>
   <si>
@@ -39,18 +48,45 @@
     <t>redis 的过期策略都有哪些？</t>
   </si>
   <si>
+    <t>缓存数据库双写不一致的问题</t>
+  </si>
+  <si>
     <t>内存淘汰机制</t>
   </si>
   <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>1 更新完数据库，删除缓存</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
     <t>为啥 redis 单线程模型也能效率这么高？</t>
   </si>
   <si>
+    <t>写数据库，set缓存</t>
+  </si>
+  <si>
+    <t>2 读和写的操作最后更新缓存的操作放到消息队列中</t>
+  </si>
+  <si>
     <t>如何保证 redis 的高并发和高可用？</t>
   </si>
   <si>
+    <t>两个并发写发生时</t>
+  </si>
+  <si>
+    <t>1 写数据库，2 写数据库</t>
+  </si>
+  <si>
     <t>Redis 主从架构（高可用）</t>
   </si>
   <si>
+    <t>2优先1set缓存，1在2后set缓存</t>
+  </si>
+  <si>
     <t>redis replication 的核心机制</t>
   </si>
   <si>
@@ -60,25 +96,88 @@
     <t>redis 主从复制的核心原理</t>
   </si>
   <si>
+    <t>雪崩，穿透，击穿</t>
+  </si>
+  <si>
     <t>哨兵功能</t>
   </si>
   <si>
+    <t>雪崩</t>
+  </si>
+  <si>
+    <t>缓存服务器挂了，导致没有命中缓存</t>
+  </si>
+  <si>
+    <t>Redis高可用</t>
+  </si>
+  <si>
     <t>redis 哨兵主备切换的数据丢失问题</t>
   </si>
   <si>
+    <t>hytrix</t>
+  </si>
+  <si>
     <t>数据丢失问题的解决方案</t>
   </si>
   <si>
+    <t>Redis数据持久化</t>
+  </si>
+  <si>
     <t>sdown 和 odown 转换机制</t>
   </si>
   <si>
+    <t>穿透</t>
+  </si>
+  <si>
+    <t>请求访问一个数据库里么有的key</t>
+  </si>
+  <si>
     <t>哨兵集群的自动发现机制</t>
   </si>
   <si>
     <t>slave 配置的自动纠正</t>
   </si>
   <si>
+    <t>击穿</t>
+  </si>
+  <si>
+    <t>数据基本不会改变的情况</t>
+  </si>
+  <si>
     <t>slave-&gt;master 选举算法</t>
+  </si>
+  <si>
+    <t>数据更新不频繁的情况</t>
+  </si>
+  <si>
+    <t>redis 持久化的两种方式</t>
+  </si>
+  <si>
+    <t>数据更新平凡的情况</t>
+  </si>
+  <si>
+    <t>RDB优点</t>
+  </si>
+  <si>
+    <t>AOF 优缺点</t>
+  </si>
+  <si>
+    <t>RDB 和 AOF 到底该如何选择</t>
+  </si>
+  <si>
+    <t>redis cluster 介绍</t>
+  </si>
+  <si>
+    <t>分布式寻址算法</t>
+  </si>
+  <si>
+    <t>hash 算法介绍</t>
+  </si>
+  <si>
+    <t>一致性 hash 算法</t>
+  </si>
+  <si>
+    <t>redis cluster 的高可用与主备切换原理</t>
   </si>
 </sst>
 </file>
@@ -87,11 +186,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +207,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -115,39 +237,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,79 +276,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +315,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -261,187 +376,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,80 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,6 +593,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -560,153 +675,159 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1070,108 +1191,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/缓存/test.xlsx
+++ b/缓存/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>项目中缓存是如何使用的？为什么要用缓存？</t>
   </si>
@@ -27,18 +27,9 @@
     <t>redis 和 memcached 有什么区别</t>
   </si>
   <si>
-    <t>高性能</t>
-  </si>
-  <si>
-    <t>mysql并发2000QPS，Redis有10W的QPS</t>
-  </si>
-  <si>
     <t>redis 的线程模型</t>
   </si>
   <si>
-    <t>高并发</t>
-  </si>
-  <si>
     <t>redis 都有哪些数据类型？</t>
   </si>
   <si>
@@ -48,45 +39,21 @@
     <t>redis 的过期策略都有哪些？</t>
   </si>
   <si>
-    <t>缓存数据库双写不一致的问题</t>
-  </si>
-  <si>
     <t>内存淘汰机制</t>
   </si>
   <si>
-    <t>CAP</t>
-  </si>
-  <si>
-    <t>1 更新完数据库，删除缓存</t>
-  </si>
-  <si>
     <t>cap</t>
   </si>
   <si>
     <t>为啥 redis 单线程模型也能效率这么高？</t>
   </si>
   <si>
-    <t>写数据库，set缓存</t>
-  </si>
-  <si>
-    <t>2 读和写的操作最后更新缓存的操作放到消息队列中</t>
-  </si>
-  <si>
     <t>如何保证 redis 的高并发和高可用？</t>
   </si>
   <si>
-    <t>两个并发写发生时</t>
-  </si>
-  <si>
-    <t>1 写数据库，2 写数据库</t>
-  </si>
-  <si>
     <t>Redis 主从架构（高可用）</t>
   </si>
   <si>
-    <t>2优先1set缓存，1在2后set缓存</t>
-  </si>
-  <si>
     <t>redis replication 的核心机制</t>
   </si>
   <si>
@@ -96,66 +63,30 @@
     <t>redis 主从复制的核心原理</t>
   </si>
   <si>
-    <t>雪崩，穿透，击穿</t>
-  </si>
-  <si>
     <t>哨兵功能</t>
   </si>
   <si>
-    <t>雪崩</t>
-  </si>
-  <si>
-    <t>缓存服务器挂了，导致没有命中缓存</t>
-  </si>
-  <si>
-    <t>Redis高可用</t>
-  </si>
-  <si>
     <t>redis 哨兵主备切换的数据丢失问题</t>
   </si>
   <si>
-    <t>hytrix</t>
-  </si>
-  <si>
     <t>数据丢失问题的解决方案</t>
   </si>
   <si>
-    <t>Redis数据持久化</t>
-  </si>
-  <si>
     <t>sdown 和 odown 转换机制</t>
   </si>
   <si>
-    <t>穿透</t>
-  </si>
-  <si>
-    <t>请求访问一个数据库里么有的key</t>
-  </si>
-  <si>
     <t>哨兵集群的自动发现机制</t>
   </si>
   <si>
     <t>slave 配置的自动纠正</t>
   </si>
   <si>
-    <t>击穿</t>
-  </si>
-  <si>
-    <t>数据基本不会改变的情况</t>
-  </si>
-  <si>
     <t>slave-&gt;master 选举算法</t>
   </si>
   <si>
-    <t>数据更新不频繁的情况</t>
-  </si>
-  <si>
     <t>redis 持久化的两种方式</t>
   </si>
   <si>
-    <t>数据更新平凡的情况</t>
-  </si>
-  <si>
     <t>RDB优点</t>
   </si>
   <si>
@@ -168,6 +99,15 @@
     <t>redis cluster 介绍</t>
   </si>
   <si>
+    <t>节点间的内部通信机制</t>
+  </si>
+  <si>
+    <t>gossip 协议</t>
+  </si>
+  <si>
+    <t>ping 消息深入</t>
+  </si>
+  <si>
     <t>分布式寻址算法</t>
   </si>
   <si>
@@ -175,6 +115,9 @@
   </si>
   <si>
     <t>一致性 hash 算法</t>
+  </si>
+  <si>
+    <t>Hash环的数据倾斜问题</t>
   </si>
   <si>
     <t>redis cluster 的高可用与主备切换原理</t>
@@ -185,12 +128,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,45 +144,111 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,18 +262,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,36 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -313,59 +300,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -376,13 +310,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,31 +394,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,133 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +501,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -581,24 +533,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,17 +552,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,13 +578,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,8 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,152 +606,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,9 +759,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1178,238 +1109,189 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:20">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="T8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T8" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="3" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/缓存/test.xlsx
+++ b/缓存/test.xlsx
@@ -128,12 +128,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -164,30 +216,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,53 +272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,42 +286,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -310,12 +325,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -328,7 +457,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,157 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,32 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,17 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,7 +588,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,34 +636,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,101 +669,104 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,6 +774,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,7 +1133,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1122,175 +1143,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I8" s="4"/>
       <c r="T8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
     </row>

--- a/缓存/test.xlsx
+++ b/缓存/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="25200" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -172,6 +172,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -187,30 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,57 +293,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,36 +315,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -325,43 +325,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,139 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,11 +519,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,41 +601,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,30 +616,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
